--- a/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-Invalid-Monitorees.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B94321-11CF-AB49-933A-F42C0B0F1F31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE562D-0378-2B4C-8F78-438CB983D195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{FB22F82A-CCC1-4D6A-91C1-F71C3D0DC51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Middle Name</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -752,31 +761,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0A48AF-1FB5-45BC-B992-E199F2EDE988}">
-  <dimension ref="A1:CU1"/>
+  <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CN9" sqref="CN9"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CJ9" sqref="BA9:CJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -795,59 +805,63 @@
     <col min="41" max="41" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9" style="1" customWidth="1"/>
-    <col min="50" max="50" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11.83203125" style="1"/>
+    <col min="74" max="74" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="11" style="1" customWidth="1"/>
     <col min="77" max="77" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.1640625" style="1" customWidth="1"/>
+    <col min="86" max="86" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="11.83203125" style="1"/>
+    <col min="89" max="89" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="16384" width="11.83203125" style="1"/>
+    <col min="97" max="97" width="11.83203125" style="1"/>
+    <col min="98" max="98" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="11.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:102" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
@@ -1144,6 +1158,15 @@
       </c>
       <c r="CU1" s="7" t="s">
         <v>98</v>
+      </c>
+      <c r="CV1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
